--- a/Automação whatsapp/grupos.xlsx
+++ b/Automação whatsapp/grupos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinis\OneDrive\Anexos\Área de Trabalho\Automação whatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinis\OneDrive\Anexos\Área de Trabalho\git\Whatsapp-automation\Automação whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE135D-147B-468B-BB76-23EED65A46B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2D2C7E-7822-45DA-A66A-F15AB146064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAD4AB1-9179-400E-B90B-DEA25E029B2C}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://chat.whatsapp.com/K6DOUXYJv6SCr7GJ77Zh6e</t>
   </si>
   <si>
     <t>https://chat.whatsapp.com/CejTqygbPKXLJdYGkmrlAa</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GWjI8NP2HXzCfP8mROjlrQ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GHGNvxj4TMj86pa1BY656L</t>
   </si>
 </sst>
 </file>
@@ -433,9 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B1095B-AADA-4C27-9A66-36224035289D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -449,6 +457,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{915912B9-3F26-478B-9B6C-C9D1D7B7643B}"/>
